--- a/bert.xlsx
+++ b/bert.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Kim\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3776FBEC-D244-407A-A477-6850F618A60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D5AEEB-549B-4AEB-944C-D6F7F3392E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="3375" windowWidth="11985" windowHeight="11295" xr2:uid="{F3F01ED4-CBDA-4222-AA2C-0BA59015F744}"/>
+    <workbookView xWindow="41310" yWindow="2715" windowWidth="11985" windowHeight="11295" activeTab="1" xr2:uid="{F3F01ED4-CBDA-4222-AA2C-0BA59015F744}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sentiment" sheetId="1" r:id="rId1"/>
+    <sheet name="Kospi" sheetId="2" r:id="rId2"/>
+    <sheet name="Industry" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>ver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,11 +86,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toknize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bert_senti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tokenize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bert_kospi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bert_indus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 증가 및 khaii 토크나이징 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8052FDF4-EFA6-4E5C-8D77-B4F11A56A163}">
-  <dimension ref="C2:J14"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -469,282 +487,469 @@
     <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>16000</v>
+      </c>
+      <c r="E4">
+        <v>4000</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>64</v>
+      </c>
+      <c r="H4">
+        <v>0.79884999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>80000</v>
+      </c>
+      <c r="E5">
+        <v>20000</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>80000</v>
+      </c>
+      <c r="E6">
+        <v>20000</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>64</v>
+      </c>
+      <c r="H6">
+        <v>0.82772000000000001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>80000</v>
+      </c>
+      <c r="E7">
+        <v>20000</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>64</v>
+      </c>
+      <c r="H7">
+        <v>0.71265000000000001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>68544</v>
+      </c>
+      <c r="E8">
+        <v>17137</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>64</v>
+      </c>
+      <c r="H8">
+        <v>0.84225000000000005</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>80000</v>
+      </c>
+      <c r="E9">
+        <v>20000</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>64</v>
+      </c>
+      <c r="H9">
+        <v>0.92127000000000003</v>
+      </c>
+      <c r="I9" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>80000</v>
+      </c>
+      <c r="E10">
+        <v>20000</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>64</v>
+      </c>
+      <c r="H10">
+        <v>0.92157</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>80000</v>
+      </c>
+      <c r="E11">
+        <v>20000</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>64</v>
+      </c>
+      <c r="H11">
+        <v>0.92391999999999996</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>80000</v>
+      </c>
+      <c r="E12">
+        <v>20000</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>64</v>
+      </c>
+      <c r="H12">
+        <v>0.92796000000000001</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>152502</v>
+      </c>
+      <c r="E13">
+        <v>38126</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>64</v>
+      </c>
+      <c r="H13">
+        <v>0.93896999999999997</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>311592</v>
+      </c>
+      <c r="E14">
+        <v>77899</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>64</v>
+      </c>
+      <c r="H14">
+        <v>0.9395</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF06EE91-32B4-44F0-AB39-A97ABC7C50F8}">
+  <dimension ref="B2:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>80000</v>
+      </c>
+      <c r="E4">
+        <v>20000</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>297103</v>
+      </c>
+      <c r="E5">
+        <v>74276</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>297103</v>
+      </c>
+      <c r="E6">
+        <v>74276</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CE3DAA-2F8F-40F1-996B-5D280129C236}">
+  <dimension ref="B2:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>80000</v>
+      </c>
+      <c r="E4">
+        <v>20000</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>16000</v>
-      </c>
-      <c r="F4">
-        <v>4000</v>
-      </c>
       <c r="G4">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="H4">
-        <v>64</v>
-      </c>
-      <c r="I4">
-        <v>0.79884999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>80000</v>
-      </c>
-      <c r="F5">
-        <v>20000</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>64</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>80000</v>
-      </c>
-      <c r="F6">
-        <v>20000</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>64</v>
-      </c>
-      <c r="I6">
-        <v>0.82772000000000001</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>80000</v>
-      </c>
-      <c r="F7">
-        <v>20000</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>64</v>
-      </c>
-      <c r="I7">
-        <v>0.71265000000000001</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>68544</v>
-      </c>
-      <c r="F8">
-        <v>17137</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>64</v>
-      </c>
-      <c r="I8">
-        <v>0.84225000000000005</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D9" s="1">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>80000</v>
-      </c>
-      <c r="F9">
-        <v>20000</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>64</v>
-      </c>
-      <c r="I9">
-        <v>0.92127000000000003</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>80000</v>
-      </c>
-      <c r="F10">
-        <v>20000</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>64</v>
-      </c>
-      <c r="I10">
-        <v>0.92157</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D11" s="1">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>80000</v>
-      </c>
-      <c r="F11">
-        <v>20000</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>64</v>
-      </c>
-      <c r="I11">
-        <v>0.92391999999999996</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D12" s="1">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>80000</v>
-      </c>
-      <c r="F12">
-        <v>20000</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>64</v>
-      </c>
-      <c r="I12">
-        <v>0.92796000000000001</v>
-      </c>
-      <c r="J12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D13" s="1">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>152502</v>
-      </c>
-      <c r="F13">
-        <v>38126</v>
-      </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <v>64</v>
-      </c>
-      <c r="I13">
-        <v>0.93896999999999997</v>
-      </c>
-      <c r="J13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D14" s="1">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>311592</v>
-      </c>
-      <c r="F14">
-        <v>77899</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14">
-        <v>64</v>
-      </c>
-      <c r="I14">
-        <v>0.9395</v>
-      </c>
-      <c r="J14" t="s">
-        <v>9</v>
+        <v>0.88414999999999999</v>
       </c>
     </row>
   </sheetData>
